--- a/Algorithm/Models Tables.xlsx
+++ b/Algorithm/Models Tables.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/gabrielmedeiros/Documents/OneDrive/Business analytics/CreditCardsFraudDetection/Algorithm/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6864D702-AC73-7746-A3B6-86621C4602E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{384DDC88-BADB-C249-8655-00E2E6DB8FEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14520" yWindow="0" windowWidth="14280" windowHeight="18000" xr2:uid="{CD9AA4B8-6521-7344-BFDF-CBEFE44689AD}"/>
+    <workbookView xWindow="380" yWindow="500" windowWidth="28040" windowHeight="16940" xr2:uid="{CD9AA4B8-6521-7344-BFDF-CBEFE44689AD}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="14">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="15">
   <si>
     <t>Logistic Regression</t>
   </si>
@@ -76,6 +76,9 @@
   </si>
   <si>
     <t>GradientBoosting</t>
+  </si>
+  <si>
+    <t>RUNNING…</t>
   </si>
 </sst>
 </file>
@@ -440,21 +443,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D90FE55F-8617-D646-A9A8-CD6DE004C10D}">
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D14" sqref="D14"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="30" customWidth="1"/>
-    <col min="2" max="2" width="9.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="6.1640625" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="3" width="10.83203125" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="11.6640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>4</v>
       </c>
@@ -468,7 +470,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -482,7 +484,7 @@
         <v>0.52175099999999996</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>1</v>
       </c>
@@ -496,7 +498,7 @@
         <v>0.77398999999999996</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -510,7 +512,7 @@
         <v>5.2972400000000003E-2</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>8</v>
       </c>
@@ -524,7 +526,7 @@
         <v>0.87761100000000003</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>9</v>
       </c>
@@ -538,7 +540,7 @@
         <v>0.83440599999999998</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>10</v>
       </c>
@@ -552,7 +554,7 @@
         <v>0.89119599999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>11</v>
       </c>
@@ -565,19 +567,20 @@
       <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="E8" s="1"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
   </sheetData>
